--- a/config_debug/xrhb1_config.xlsx
+++ b/config_debug/xrhb1_config.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
     <sheet name="task_list|任务列表配置" sheetId="3" r:id="rId2"/>
     <sheet name="task|任务配置" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -413,9 +413,6 @@
     <t>进阶任务2</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金50万</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -443,39 +440,21 @@
     <t>进阶任务3</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金100万</t>
-  </si>
-  <si>
     <t>进阶任务4</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金200万</t>
-  </si>
-  <si>
     <t>进阶任务5</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金500万</t>
-  </si>
-  <si>
     <t>进阶任务6</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金1000万</t>
-  </si>
-  <si>
     <t>进阶任务7</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金2000万</t>
-  </si>
-  <si>
     <t>进阶任务8</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金5000万</t>
-  </si>
-  <si>
     <t>完成15次匹配场对局</t>
   </si>
   <si>
@@ -669,6 +648,34 @@
   </si>
   <si>
     <t>3D捕鱼中捕获任意250条鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -1181,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" s="15">
         <v>30</v>
@@ -1378,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1415,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -1434,19 +1441,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5">
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1463,19 +1470,19 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5">
         <v>10000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -1492,19 +1499,19 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I4" s="5">
         <v>3</v>
@@ -1521,19 +1528,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" s="5">
         <v>60000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -1553,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F6" s="5">
         <v>50</v>
@@ -1562,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5">
         <v>5</v>
@@ -1582,7 +1589,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" s="10">
         <v>20</v>
@@ -1591,7 +1598,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I7" s="10">
         <v>6</v>
@@ -1607,20 +1614,20 @@
       <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
+      <c r="D8" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I8" s="10">
         <v>7</v>
@@ -1634,22 +1641,22 @@
         <v>21133</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F9" s="10">
         <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I9" s="10">
         <v>8</v>
@@ -1663,22 +1670,22 @@
         <v>21134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F10" s="10">
         <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I10" s="10">
         <v>9</v>
@@ -1692,22 +1699,22 @@
         <v>21135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F11" s="10">
         <v>150</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I11" s="10">
         <v>10</v>
@@ -1721,22 +1728,22 @@
         <v>21136</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F12" s="10">
         <v>300</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I12" s="10">
         <v>11</v>
@@ -1750,22 +1757,22 @@
         <v>21137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F13" s="10">
         <v>600</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I13" s="10">
         <v>12</v>
@@ -1779,22 +1786,22 @@
         <v>21138</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F14" s="10">
         <v>1800</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I14" s="10">
         <v>13</v>
@@ -1814,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F15" s="5">
         <v>2000</v>
@@ -1823,7 +1830,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -1843,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5">
         <v>0.2</v>
@@ -1852,7 +1859,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -1869,10 +1876,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5">
         <v>3000</v>
@@ -1881,7 +1888,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>

--- a/config_debug/xrhb1_config.xlsx
+++ b/config_debug/xrhb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
@@ -635,10 +635,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中捕获任意10条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中捕获任意50条鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -676,6 +672,10 @@
   </si>
   <si>
     <t>任意游戏累计赢金5000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中开炮30次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>73</v>
@@ -1470,7 +1470,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>72</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>69</v>
@@ -1615,7 +1615,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
@@ -1644,7 +1644,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>60</v>
@@ -1673,7 +1673,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>63</v>
@@ -1702,7 +1702,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>64</v>
@@ -1731,7 +1731,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>65</v>
@@ -1760,7 +1760,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>66</v>
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>67</v>
@@ -1897,6 +1897,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>